--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2472.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2472.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147944242500987</v>
+        <v>1.414949178695679</v>
       </c>
       <c r="B1">
-        <v>2.677993773463414</v>
+        <v>1.968210458755493</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.408133745193481</v>
       </c>
       <c r="D1">
-        <v>3.683568387124155</v>
+        <v>4.812595844268799</v>
       </c>
       <c r="E1">
-        <v>0.9440590650128382</v>
+        <v>0.916772723197937</v>
       </c>
     </row>
   </sheetData>
